--- a/data/trans_orig/IP13_R1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6EE828-EC31-4FC5-BD66-D67752F351B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{639E160F-F3FF-4862-9AB4-78B0C26C3397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C706493-B7B8-4F39-AA1A-3E1038939969}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4F04D2C-C5D0-4600-B24E-252CF9AF52E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -83,13 +83,13 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>34,86%</t>
+    <t>26,25%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>15,61%</t>
+    <t>15,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,92%</t>
   </si>
   <si>
-    <t>65,14%</t>
+    <t>73,75%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,0%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -137,31 +137,31 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>97,0%</t>
+    <t>96,94%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>96,44%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,55%</t>
+    <t>97,69%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -170,31 +170,31 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -203,76 +203,76 @@
     <t>98,93%</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -281,10 +281,10 @@
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -293,28 +293,31 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>97,02%</t>
+    <t>96,97%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -323,55 +326,58 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>97,31%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -786,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4B1C55-E2C1-4A8F-8D5C-31A9996487E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663F9A8-804F-4C74-BF42-A0314F552EEE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1563,10 +1569,10 @@
         <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,13 +1587,13 @@
         <v>172151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -1596,13 +1602,13 @@
         <v>169982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>471</v>
@@ -1611,13 +1617,13 @@
         <v>342132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,13 +1691,13 @@
         <v>11492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -1700,13 +1706,13 @@
         <v>10934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -1715,13 +1721,13 @@
         <v>22427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,13 +1742,13 @@
         <v>713538</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>926</v>
@@ -1751,13 +1757,13 @@
         <v>641945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>1886</v>
@@ -1766,13 +1772,13 @@
         <v>1355482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,7 +1834,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP13_R1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{639E160F-F3FF-4862-9AB4-78B0C26C3397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FCCC02E-DE07-4A06-A84C-3905DA89D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4F04D2C-C5D0-4600-B24E-252CF9AF52E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C4944808-6E2D-43A0-97B7-C078F00034A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,319 +65,277 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>90,51%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -792,8 +750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663F9A8-804F-4C74-BF42-A0314F552EEE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C81AD-2BA8-4775-8C48-ECC391D37AA9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -910,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1572</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -925,85 +883,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1021</v>
+        <v>2615</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="D5" s="7">
-        <v>12698</v>
+        <v>115708</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
+        <v>168</v>
+      </c>
+      <c r="I5" s="7">
+        <v>138646</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>362</v>
+      </c>
+      <c r="N5" s="7">
+        <v>254354</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15766</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>46</v>
-      </c>
-      <c r="N5" s="7">
-        <v>28464</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1012,153 +970,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>139689</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>256969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1051</v>
+        <v>2040</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>647</v>
+        <v>2240</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>1698</v>
+        <v>4280</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="D8" s="7">
-        <v>112871</v>
+        <v>188472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="I8" s="7">
-        <v>103248</v>
+        <v>252795</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>316</v>
+        <v>616</v>
       </c>
       <c r="N8" s="7">
-        <v>216118</v>
+        <v>441268</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1167,153 +1125,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>113922</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>217816</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>2210</v>
+        <v>5027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>2064</v>
+        <v>5615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>4274</v>
+        <v>10643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>340</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>247976</v>
+        <v>184558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>190288</v>
+        <v>179671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>616</v>
+        <v>437</v>
       </c>
       <c r="N11" s="7">
-        <v>438264</v>
+        <v>364228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,153 +1280,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1940</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2966</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
-        <v>5366</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5242</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="7">
-        <v>14</v>
-      </c>
       <c r="N13" s="7">
-        <v>10608</v>
+        <v>4906</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>167842</v>
+        <v>166022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>162660</v>
+        <v>178272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="N14" s="7">
-        <v>330502</v>
+        <v>344295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,153 +1435,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>2865</v>
+        <v>10579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>1961</v>
+        <v>11864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>4826</v>
+        <v>22443</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>234</v>
+        <v>926</v>
       </c>
       <c r="D17" s="7">
-        <v>172151</v>
+        <v>654761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>237</v>
+        <v>960</v>
       </c>
       <c r="I17" s="7">
-        <v>169982</v>
+        <v>749384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>471</v>
+        <v>1886</v>
       </c>
       <c r="N17" s="7">
-        <v>342132</v>
+        <v>1404145</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,217 +1590,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>665340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761248</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1426588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11492</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="7">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10934</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>32</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22427</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>960</v>
-      </c>
-      <c r="D20" s="7">
-        <v>713538</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="7">
-        <v>926</v>
-      </c>
-      <c r="I20" s="7">
-        <v>641945</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1886</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1355482</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725030</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377909</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
